--- a/Documentation/Profile_Maximum_Search_Test..xlsx
+++ b/Documentation/Profile_Maximum_Search_Test..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeroz\OneDrive\Desktop\Git\WebTours\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F8190-DD0E-4C6B-B695-0303A83165CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9027D-CD16-4CC7-AFA3-B9542205AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34FBF466-78CE-4D5A-989F-61E6A9F21F09}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34FBF466-78CE-4D5A-989F-61E6A9F21F09}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,11 +3360,11 @@
         <v>90.207373271889409</v>
       </c>
       <c r="H32" s="25">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I32" s="28">
         <f t="shared" si="12"/>
-        <v>-0.55529953917050712</v>
+        <v>1.9485073131636832E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -3387,11 +3387,11 @@
         <v>90.207373271889409</v>
       </c>
       <c r="H33" s="25">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I33" s="28">
         <f t="shared" si="12"/>
-        <v>-2.3041474654379446E-3</v>
+        <v>1.9485073131636832E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -3415,11 +3415,11 @@
         <v>58.064516129032256</v>
       </c>
       <c r="H34" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I34" s="28">
         <f t="shared" si="12"/>
-        <v>-1.1123470522802492E-3</v>
+        <v>1.5855658829961761E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -3442,11 +3442,11 @@
         <v>88.922228350799784</v>
       </c>
       <c r="H35" s="25">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="12"/>
-        <v>-1.0479867622724903E-2</v>
+        <v>8.7383875505864239E-4</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -3496,11 +3496,11 @@
         <v>114.69716919025676</v>
       </c>
       <c r="H37" s="25">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I37" s="28">
         <f t="shared" si="12"/>
-        <v>2.6333113890716353E-3</v>
+        <v>2.7990091607993595E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
